--- a/refs/heads/rc2-umbrella/StructureDefinition-shc-provenance.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-shc-provenance.xlsx
@@ -732,7 +732,7 @@
     <t>Person, Practitioner, Organization, Device :* .role [classCode = RoleClassMutualRelationship; role.code and * .scopes[Role](classCode=IDENT) and *.plays [Role.Code]</t>
   </si>
   <si>
-    <t>Provenance_Agent</t>
+    <t>provenanceAgent</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-organization)
@@ -857,7 +857,7 @@
     <t>./signatureText</t>
   </si>
   <si>
-    <t>Provenance_Signature</t>
+    <t>provenanceSignature</t>
   </si>
   <si>
     <t>Provenance.signature.id</t>
@@ -916,7 +916,7 @@
     <t>Provenance.signature.who</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-organization|https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/svc-practitioner-role|https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-practitioner)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-organization|https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-practitioner-role|https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-practitioner)
 </t>
   </si>
   <si>
@@ -1155,7 +1155,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="34.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.62109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.76171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
